--- a/Team-Data/2007-08/4-9-2007-08.xlsx
+++ b/Team-Data/2007-08/4-9-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -786,13 +853,13 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -801,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.795</v>
+        <v>0.805</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
         <v>76.5</v>
@@ -872,22 +939,22 @@
         <v>0.475</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.1</v>
@@ -896,37 +963,37 @@
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -953,19 +1020,19 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="n">
         <v>7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -974,10 +1041,10 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
@@ -992,13 +1059,13 @@
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J4" t="n">
         <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>18.2</v>
@@ -1081,7 +1148,7 @@
         <v>40.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1096,16 +1163,16 @@
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.6</v>
+        <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1120,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
@@ -1147,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
@@ -1162,22 +1229,22 @@
         <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
         <v>83.7</v>
@@ -1236,28 +1303,28 @@
         <v>0.432</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
         <v>43.1</v>
@@ -1275,7 +1342,7 @@
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>21.7</v>
@@ -1284,13 +1351,13 @@
         <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1326,13 +1393,13 @@
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
@@ -1344,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1356,13 +1423,13 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,19 +1461,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.551</v>
+        <v>0.545</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
         <v>36</v>
@@ -1421,19 +1488,19 @@
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
         <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R6" t="n">
         <v>13.3</v>
@@ -1442,10 +1509,10 @@
         <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
         <v>14</v>
@@ -1454,7 +1521,7 @@
         <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>4.7</v>
@@ -1463,16 +1530,16 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,16 +1557,16 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1544,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1687,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1699,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
         <v>55</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.705</v>
+        <v>0.714</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,13 +2028,13 @@
         <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
         <v>0.368</v>
@@ -1976,16 +2043,16 @@
         <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
@@ -2000,10 +2067,10 @@
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
@@ -2012,13 +2079,13 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,10 +2109,10 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>12</v>
@@ -2057,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2093,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2233,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2254,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J11" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
@@ -2349,7 +2416,7 @@
         <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
@@ -2373,25 +2440,25 @@
         <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
         <v>5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>4</v>
-      </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -2406,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2427,10 +2494,10 @@
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,13 +2506,13 @@
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2454,10 +2521,10 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2576,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2600,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2812,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2967,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3158,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3179,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3319,7 +3386,7 @@
         <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3349,7 +3416,7 @@
         <v>22</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>22</v>
@@ -3361,13 +3428,13 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3423,22 +3490,22 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S17" t="n">
         <v>28.8</v>
@@ -3453,7 +3520,7 @@
         <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3468,13 +3535,13 @@
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3495,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3513,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
@@ -3528,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,19 +3604,19 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,28 +3663,28 @@
         <v>37.3</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M18" t="n">
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R18" t="n">
         <v>11.6</v>
@@ -3626,7 +3693,7 @@
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
@@ -3647,16 +3714,16 @@
         <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.2</v>
+        <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3692,10 +3759,10 @@
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3713,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J19" t="n">
         <v>78.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
@@ -3790,7 +3857,7 @@
         <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
         <v>20.1</v>
@@ -3799,7 +3866,7 @@
         <v>27.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
@@ -3811,7 +3878,7 @@
         <v>42.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -3832,13 +3899,13 @@
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3895,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3904,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,31 +4009,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>19.8</v>
@@ -3978,10 +4045,10 @@
         <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
@@ -3990,13 +4057,13 @@
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4008,28 +4075,28 @@
         <v>4.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA20" t="n">
         <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
@@ -4041,13 +4108,13 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>3</v>
@@ -4056,10 +4123,10 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4068,7 +4135,7 @@
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>0.291</v>
+        <v>0.282</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
@@ -4190,22 +4257,22 @@
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -4235,31 +4302,31 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
         <v>20</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,16 +4335,16 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
         <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>0.628</v>
+        <v>0.623</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>9.699999999999999</v>
@@ -4336,7 +4403,7 @@
         <v>25.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O22" t="n">
         <v>20.4</v>
@@ -4345,19 +4412,19 @@
         <v>28.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>14.4</v>
@@ -4378,22 +4445,22 @@
         <v>23.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4423,16 +4490,16 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="n">
         <v>38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,10 +4573,10 @@
         <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4521,7 +4588,7 @@
         <v>0.317</v>
       </c>
       <c r="O23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P23" t="n">
         <v>26.4</v>
@@ -4530,19 +4597,19 @@
         <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T23" t="n">
         <v>41.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>8.6</v>
@@ -4560,13 +4627,13 @@
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,16 +4666,16 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
@@ -4629,16 +4696,16 @@
         <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,25 +4755,25 @@
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K24" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N24" t="n">
         <v>0.394</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
         <v>0.785</v>
@@ -4721,10 +4788,10 @@
         <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="V24" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>6.6</v>
@@ -4736,22 +4803,22 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.3</v>
+        <v>110.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
         <v>22</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI25" t="n">
         <v>27</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4996,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>53</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.679</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,28 +5301,28 @@
         <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M27" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O27" t="n">
         <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R27" t="n">
         <v>9.6</v>
@@ -5264,13 +5331,13 @@
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
@@ -5285,16 +5352,16 @@
         <v>18.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5321,7 +5388,7 @@
         <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
@@ -5333,16 +5400,16 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>21</v>
@@ -5369,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="BC27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="n">
         <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>0.228</v>
+        <v>0.231</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L28" t="n">
         <v>3.9</v>
@@ -5428,13 +5495,13 @@
         <v>11.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.77</v>
@@ -5443,16 +5510,16 @@
         <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T28" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U28" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5461,19 +5528,19 @@
         <v>4.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5515,16 +5582,16 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5551,7 +5618,7 @@
         <v>16</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
         <v>0.394</v>
@@ -5631,10 +5698,10 @@
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5652,22 +5719,22 @@
         <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5682,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
         <v>6.9</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N31" t="n">
         <v>0.353</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P31" t="n">
         <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R31" t="n">
         <v>12.1</v>
@@ -5992,19 +6059,19 @@
         <v>29.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V31" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
@@ -6013,16 +6080,16 @@
         <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,16 +6110,16 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN31" t="n">
         <v>20</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6070,19 +6137,19 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2007-08</t>
+          <t>2008-04-09</t>
         </is>
       </c>
     </row>
